--- a/PVxchange.xlsx
+++ b/PVxchange.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9378A27F-FA54-4923-AF5C-CF348F24F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F079ED2D-8BDC-49DC-A8A5-D385EF2C28A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{302A2F9C-8B67-4B22-B735-4CEA91508A1F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Japan</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>RoW</t>
+  </si>
+  <si>
+    <t>2022-Q1</t>
+  </si>
+  <si>
+    <t>2022-Q2</t>
+  </si>
+  <si>
+    <t>2022-Q3</t>
+  </si>
+  <si>
+    <t>2022-Q4</t>
   </si>
 </sst>
 </file>
@@ -719,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD865C5-6021-4E14-9B88-263DED9EB705}">
-  <dimension ref="A1:AX6"/>
+  <dimension ref="A1:BB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="BA19" sqref="BA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +742,7 @@
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -879,8 +891,20 @@
       <c r="AX1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1031,8 +1055,20 @@
       <c r="AX2" s="6">
         <v>0.24</v>
       </c>
+      <c r="AY2" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AZ2" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="BA2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BB2" s="6">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1183,8 +1219,20 @@
       <c r="AX3" s="6">
         <v>0.25</v>
       </c>
+      <c r="AY3" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AZ3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BA3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BB3" s="6">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1335,8 +1383,20 @@
       <c r="AX4" s="6">
         <v>0.25</v>
       </c>
+      <c r="AY4" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AZ4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BA4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BB4" s="6">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
@@ -1487,8 +1547,20 @@
       <c r="AX5" s="6">
         <v>0.3</v>
       </c>
+      <c r="AY5" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="AZ5" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="BA5" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="BB5" s="6">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1637,6 +1709,18 @@
         <v>0.2</v>
       </c>
       <c r="AX6" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="AY6" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AZ6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BA6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="BB6" s="6">
         <v>0.24</v>
       </c>
     </row>
